--- a/biology/Médecine/Henri_Nouvion_(médecin)/Henri_Nouvion_(médecin).xlsx
+++ b/biology/Médecine/Henri_Nouvion_(médecin)/Henri_Nouvion_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Nouvion_(m%C3%A9decin)</t>
+          <t>Henri_Nouvion_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Nouvion (2 mai 1900 à Ayen - 15 décembre 1982 à Brive-la-Gaillarde[1]) est un médecin français, phtisiologue qui a dirigé les travaux sur le  traitement de la tuberculose par iodure de  potassium-antigène-méthylique, inventeur du « spiroscope compensateur » ou spiromètre[2],[3],[4] des établissements Spengler.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Nouvion (2 mai 1900 à Ayen - 15 décembre 1982 à Brive-la-Gaillarde) est un médecin français, phtisiologue qui a dirigé les travaux sur le  traitement de la tuberculose par iodure de  potassium-antigène-méthylique, inventeur du « spiroscope compensateur » ou spiromètre des établissements Spengler.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Nouvion_(m%C3%A9decin)</t>
+          <t>Henri_Nouvion_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève du professeur Émile Sergent, Henri Nouvion était médecin-Chef puis Chef de Service de l'Assistance publique - hôpitaux de Paris (AP-HP) au Sanatorium Joffre destiné à l’hospitalisation des malades tuberculeux parisiens et à l'hôpital Joffre-Dupuytren (Draveil) (AP-HP)
-Invention du Spiroscope compensateur (1927)
-Au fil des décennies, d'illustres médecins au XIXe siècle imaginèrent le spiromètre, mais sans succès et c'est en 1927, que le premier spiromètre moderne vit le jour avec le brevet du Spiroscope compensateur d'Henri Nouvion. Ce spiromètre à eau fut construit et commercialisé par les établissements E. Spengler (Paris)[5],
-Arrêté pour avoir caché des parachutistes américains, des familles juives et des résistants au milieu des malades (1945)
-Pendant la seconde guerre mondiale, des parachutistes et soldats américains évadés ou en fuite après l'échec de leur commandos, des pseudo-malades résistants, juifs ou enfants de résistants ont été cachés au milieu des malades tuberculeux et dans les familles des médecins du Sanatorium Joffre. Marcelle Auclair, épouse de Jean Prévost homme de lettres et héros de la résistance,  était hébergée chez la famille d'Henri Nouvion. Au début de l'année 1945 et à la suite d'une dénonciation d'une fille de salle, Henri Nouvion et les médecins Guilbaud, Place-Verghnes et Chovelon furent arrêtés et pris en otages, en représailles d'actes terroristes, à leur sortie de l'hôpital puis relâchés pendant la débâcle quelques semaines après. Seul le docteur Blondeau échappa à la rafle. Doté par le maquis d'une motocyclette, il était en mission ce matin-là pour soigner les résistants réfugiés dans la forêt de Sénart. Après la période d'occupation, Henri Nouvion fut élu de 1946 à 1952 maire adjoint RPF de Draveil aux côtés du maire SFIO, Henri Boissier.
-A l'origine du traitement contre la tuberculose basé sur l’antigène méthylique (1949-1959)
-Comme membre de la Société française de la tuberculose jusqu'en 1965, il y exposa de 1952 à 1960 ses recherches sur notamment « la conduite pratique du traitement par iodure de  potassium-antigène-méthylique ». L'antigène méthylique est un extrait bacillaire obtenu par Léopold Nègre et Alfred Bocquet. Le docteur Léopold Nègre a démontré, par ses expériences sur le cobaye et le lapin que l’action thérapeutique de la streptomycine était nettement renforcée lorsque l’antigène méthylique lui était associé.
-Durant 10 années, de 1949 à 1959, Henri Nouvion et ses collaborateurs ont adapté cette méthode au traitement de la Tuberculose chez l’homme[6], ; leurs résultats ont confirmé les recherches de L. Nègre sur les animaux de laboratoire : l’antigène méthylique a renforcé l’action de la streptomycine de l’INH. Henri Nouvion et ses collaborateurs ont appliqué ce traitement avec succès aux formes graves et invétérées de tuberculose pulmonaire chronique chez plusieurs centaines de malades. L’Antigène était injecté par voie intramusculaire (dans la même seringue que la Streptomycine) et à doses fortes huit jours consécutifs chaque mois. Les bons résultats de la thérapeutique élaborée par Nouvion ont été confirmés au Japon dès 1954 et en particulier par le Pr Yuso Kawamori de la Faculté de Médecine d'Osaka (33e Congrès de la Société Japonaise de la Tuberculose - 24 à 26 mai 1958)[7],.
 </t>
         </is>
       </c>
@@ -531,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_Nouvion_(m%C3%A9decin)</t>
+          <t>Henri_Nouvion_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +553,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Invention du Spiroscope compensateur (1927)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au fil des décennies, d'illustres médecins au XIXe siècle imaginèrent le spiromètre, mais sans succès et c'est en 1927, que le premier spiromètre moderne vit le jour avec le brevet du Spiroscope compensateur d'Henri Nouvion. Ce spiromètre à eau fut construit et commercialisé par les établissements E. Spengler (Paris),
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Nouvion_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Nouvion_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arrêté pour avoir caché des parachutistes américains, des familles juives et des résistants au milieu des malades (1945)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la seconde guerre mondiale, des parachutistes et soldats américains évadés ou en fuite après l'échec de leur commandos, des pseudo-malades résistants, juifs ou enfants de résistants ont été cachés au milieu des malades tuberculeux et dans les familles des médecins du Sanatorium Joffre. Marcelle Auclair, épouse de Jean Prévost homme de lettres et héros de la résistance,  était hébergée chez la famille d'Henri Nouvion. Au début de l'année 1945 et à la suite d'une dénonciation d'une fille de salle, Henri Nouvion et les médecins Guilbaud, Place-Verghnes et Chovelon furent arrêtés et pris en otages, en représailles d'actes terroristes, à leur sortie de l'hôpital puis relâchés pendant la débâcle quelques semaines après. Seul le docteur Blondeau échappa à la rafle. Doté par le maquis d'une motocyclette, il était en mission ce matin-là pour soigner les résistants réfugiés dans la forêt de Sénart. Après la période d'occupation, Henri Nouvion fut élu de 1946 à 1952 maire adjoint RPF de Draveil aux côtés du maire SFIO, Henri Boissier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Nouvion_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Nouvion_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A l'origine du traitement contre la tuberculose basé sur l’antigène méthylique (1949-1959)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme membre de la Société française de la tuberculose jusqu'en 1965, il y exposa de 1952 à 1960 ses recherches sur notamment « la conduite pratique du traitement par iodure de  potassium-antigène-méthylique ». L'antigène méthylique est un extrait bacillaire obtenu par Léopold Nègre et Alfred Bocquet. Le docteur Léopold Nègre a démontré, par ses expériences sur le cobaye et le lapin que l’action thérapeutique de la streptomycine était nettement renforcée lorsque l’antigène méthylique lui était associé.
+Durant 10 années, de 1949 à 1959, Henri Nouvion et ses collaborateurs ont adapté cette méthode au traitement de la Tuberculose chez l’homme, ; leurs résultats ont confirmé les recherches de L. Nègre sur les animaux de laboratoire : l’antigène méthylique a renforcé l’action de la streptomycine de l’INH. Henri Nouvion et ses collaborateurs ont appliqué ce traitement avec succès aux formes graves et invétérées de tuberculose pulmonaire chronique chez plusieurs centaines de malades. L’Antigène était injecté par voie intramusculaire (dans la même seringue que la Streptomycine) et à doses fortes huit jours consécutifs chaque mois. Les bons résultats de la thérapeutique élaborée par Nouvion ont été confirmés au Japon dès 1954 et en particulier par le Pr Yuso Kawamori de la Faculté de Médecine d'Osaka (33e Congrès de la Société Japonaise de la Tuberculose - 24 à 26 mai 1958),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Henri_Nouvion_(médecin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Nouvion_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ouvrages
 Henri Nouvion, Capacité vitale et force respiratoire. Y a-t-il automatisme pulmonaire ?, Paris, Thèse de médecine, Paris. 1926. no 273 - Librairie Marcel Vigné, 1927 (OCLC 197054544)
@@ -572,61 +693,65 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Henri_Nouvion_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Henri_Nouvion_(médecin)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henri_Nouvion_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lauréat de la Faculté de Médecine de Paris - Prix de Thèse (Médaille bronze) - 1926</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Henri_Nouvion_(m%C3%A9decin)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Henri_Nouvion_(médecin)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henri_Nouvion_(m%C3%A9decin)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Famille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit-fils du préfet de l'Empire, Jean-Baptiste Nouvion, Henri Nouvion était marié à la fille d'un industriel et propriétaire de mines en Turquie, Léon Faure qui fut aussi conseiller scientifique de Mustafa Kemal Atatürk.
 </t>
